--- a/07-27-25 to 08-02-25 Milwaukee Schedule.xlsx
+++ b/07-27-25 to 08-02-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y72"/>
+  <dimension ref="A1:Y71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2072,7 +2072,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2265,21 +2265,9 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
@@ -2364,7 +2352,11 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
@@ -2405,7 +2397,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2452,7 +2444,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2499,7 +2491,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
+          <t>N6485 COUNTY RD F</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2546,7 +2538,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>N6485 COUNTY RD F</t>
+          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2583,11 +2575,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
@@ -2646,9 +2634,21 @@
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Santa Fe available, Equip</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
@@ -2702,21 +2702,9 @@
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Santa Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
@@ -2810,7 +2798,11 @@
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
@@ -2869,7 +2861,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -2924,7 +2916,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>AURORA OUTPATIENT RX #1135 OCONOMOWOC</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -2979,7 +2971,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1135 OCONOMOWOC</t>
+          <t>1284 SUMMIT AVENUE SUITE 100</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3030,7 +3022,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>1284 SUMMIT AVENUE SUITE 100</t>
+          <t>https://goo.gl/maps/wL6wpeCnhYBhsPmP7</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3092,11 +3084,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/wL6wpeCnhYBhsPmP7</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
@@ -3150,9 +3138,21 @@
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
@@ -3211,19 +3211,15 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
@@ -3260,16 +3256,8 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Leyna</t>
-        </is>
-      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
@@ -3355,7 +3343,11 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
@@ -3404,7 +3396,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3455,7 +3447,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>AURORA OUTPATIENT RX #1055 WEST BEND</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3506,7 +3498,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1055 WEST BEND</t>
+          <t>205 VALLEY AVE</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3557,7 +3549,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>205 VALLEY AVE</t>
+          <t>https://goo.gl/maps/sSXpDDtLr7Rq4FET8</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3596,7 +3588,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/sSXpDDtLr7Rq4FET8</t>
+          <t>APPROX 9:00 AM START</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3627,7 +3619,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>APPROX 9:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3682,7 +3674,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>AURORA VISION #1154, WEST BEND</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3726,7 +3718,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>AURORA VISION #1154, WEST BEND</t>
+          <t>205 VALLEY AVE</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3757,7 +3749,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>205 VALLEY AVE</t>
+          <t>https://goo.gl/maps/wwYDRH7Nej82</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -3790,11 +3782,7 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/wwYDRH7Nej82</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
@@ -3824,9 +3812,21 @@
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
@@ -3857,19 +3857,15 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
@@ -3900,12 +3896,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -3937,16 +3933,8 @@
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
@@ -4012,7 +4000,11 @@
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
@@ -4041,7 +4033,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -4060,37 +4052,6 @@
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-27-25 to 08-02-25 Milwaukee Schedule.xlsx
+++ b/07-27-25 to 08-02-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y71"/>
+  <dimension ref="A1:Y72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,7 +749,11 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>The Altima will be going in for servicing this day, DJ taking White Camry</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -784,11 +788,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>4:45 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -833,7 +833,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:45 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -880,7 +880,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -927,7 +927,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>MARIANO'S #531 +RX, SKOKIE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -974,7 +974,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3358 W TOUHY AVE</t>
+          <t>MARIANO'S #531 +RX, SKOKIE</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1021,7 +1021,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Dybn9qjgpUN2</t>
+          <t>3358 W TOUHY AVE</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1068,7 +1068,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/Dybn9qjgpUN2</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1115,7 +1115,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>4:00 am Carlie/Trevor meet.  Not needed at Ryan Rd meet</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1152,7 +1152,11 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>4:00 am Carlie/Trevor meet.  Not needed at Ryan Rd meet</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
@@ -1191,7 +1195,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>White Camry available, Equip</t>
+          <t>Santa Fe available, Equip</t>
         </is>
       </c>
       <c r="X16" t="inlineStr"/>
@@ -1210,21 +1214,9 @@
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
@@ -1275,15 +1267,19 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
@@ -1336,20 +1332,15 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>@ Store,
-w/ Trevor</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
@@ -1375,7 +1366,7 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>White Camry available, Equip</t>
+          <t>Santa Fe available, Equip</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
@@ -1416,15 +1407,20 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>@ Store,
+w/ Trevor</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
@@ -1488,21 +1484,15 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
@@ -1549,15 +1539,21 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Pamela</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
@@ -1600,12 +1596,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1663,20 +1659,15 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>@ Store,
-w/ Carlie</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
@@ -1731,17 +1722,18 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+w/ Carlie</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
@@ -1798,18 +1790,17 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -1866,17 +1857,18 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
@@ -1933,12 +1925,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2004,12 +1996,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2067,12 +2059,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2156,12 +2148,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2215,12 +2207,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2265,9 +2257,21 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
@@ -2352,11 +2356,7 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
@@ -2397,7 +2397,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2444,7 +2444,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2491,7 +2491,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>N6485 COUNTY RD F</t>
+          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2538,7 +2538,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
+          <t>N6485 COUNTY RD F</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2575,7 +2575,11 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
@@ -2634,21 +2638,9 @@
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Santa Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
@@ -2702,9 +2694,21 @@
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Santa Fe available, Equip</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
@@ -2798,11 +2802,7 @@
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
@@ -2861,7 +2861,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -2916,7 +2916,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1135 OCONOMOWOC</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -2971,7 +2971,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>1284 SUMMIT AVENUE SUITE 100</t>
+          <t>AURORA OUTPATIENT RX #1135 OCONOMOWOC</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3022,7 +3022,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/wL6wpeCnhYBhsPmP7</t>
+          <t>1284 SUMMIT AVENUE SUITE 100</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3040,7 +3040,7 @@
       <c r="O48" t="inlineStr">
         <is>
           <t>Driver,
-White Camry, Equip</t>
+Santa Fe, Equip</t>
         </is>
       </c>
       <c r="P48" t="inlineStr"/>
@@ -3084,7 +3084,11 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/wL6wpeCnhYBhsPmP7</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
@@ -3138,21 +3142,9 @@
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
@@ -3211,15 +3203,19 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>White Camry, Equip</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
@@ -3256,8 +3252,16 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
@@ -3343,11 +3347,7 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
@@ -3396,7 +3396,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3447,7 +3447,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1055 WEST BEND</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3498,7 +3498,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>205 VALLEY AVE</t>
+          <t>AURORA OUTPATIENT RX #1055 WEST BEND</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3549,7 +3549,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/sSXpDDtLr7Rq4FET8</t>
+          <t>205 VALLEY AVE</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3588,7 +3588,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>APPROX 9:00 AM START</t>
+          <t>https://goo.gl/maps/sSXpDDtLr7Rq4FET8</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>APPROX 9:00 AM START</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3674,7 +3674,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>AURORA VISION #1154, WEST BEND</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>205 VALLEY AVE</t>
+          <t>AURORA VISION #1154, WEST BEND</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3749,7 +3749,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/wwYDRH7Nej82</t>
+          <t>205 VALLEY AVE</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -3782,7 +3782,11 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/wwYDRH7Nej82</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
@@ -3812,21 +3816,9 @@
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
@@ -3857,15 +3849,19 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
@@ -3896,12 +3892,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -3933,8 +3929,16 @@
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
@@ -4000,11 +4004,7 @@
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
@@ -4033,7 +4033,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -4052,6 +4052,37 @@
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
     </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-27-25 to 08-02-25 Milwaukee Schedule.xlsx
+++ b/07-27-25 to 08-02-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y72"/>
+  <dimension ref="A1:Y71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2257,21 +2257,9 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
@@ -2356,7 +2344,11 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
@@ -2397,7 +2389,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2444,7 +2436,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2491,7 +2483,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
+          <t>N6485 COUNTY RD F</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2538,7 +2530,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>N6485 COUNTY RD F</t>
+          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2575,11 +2567,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
@@ -2638,9 +2626,21 @@
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Santa Fe available, Equip</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
@@ -2694,21 +2694,9 @@
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Santa Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
@@ -2802,7 +2790,11 @@
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
@@ -2861,7 +2853,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -2916,7 +2908,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>AURORA OUTPATIENT RX #1135 OCONOMOWOC</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -2971,7 +2963,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1135 OCONOMOWOC</t>
+          <t>1284 SUMMIT AVENUE SUITE 100</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3022,7 +3014,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>1284 SUMMIT AVENUE SUITE 100</t>
+          <t>https://goo.gl/maps/wL6wpeCnhYBhsPmP7</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3084,11 +3076,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/wL6wpeCnhYBhsPmP7</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
@@ -3142,9 +3130,21 @@
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>White Camry, Equip</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
@@ -3203,19 +3203,15 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>White Camry, Equip</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
@@ -3252,16 +3248,8 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Leyna</t>
-        </is>
-      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
@@ -3347,7 +3335,11 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
@@ -3396,7 +3388,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3447,7 +3439,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>AURORA OUTPATIENT RX #1055 WEST BEND</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3498,7 +3490,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1055 WEST BEND</t>
+          <t>205 VALLEY AVE</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3549,7 +3541,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>205 VALLEY AVE</t>
+          <t>https://goo.gl/maps/sSXpDDtLr7Rq4FET8</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3588,7 +3580,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/sSXpDDtLr7Rq4FET8</t>
+          <t>APPROX 9:00 AM START</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3619,7 +3611,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>APPROX 9:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3674,7 +3666,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>AURORA VISION #1154, WEST BEND</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3718,7 +3710,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>AURORA VISION #1154, WEST BEND</t>
+          <t>205 VALLEY AVE</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3749,7 +3741,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>205 VALLEY AVE</t>
+          <t>https://goo.gl/maps/wwYDRH7Nej82</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -3782,11 +3774,7 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/wwYDRH7Nej82</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
@@ -3816,9 +3804,21 @@
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
@@ -3849,19 +3849,15 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
@@ -3892,12 +3888,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -3929,16 +3925,8 @@
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
@@ -4004,7 +3992,11 @@
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
@@ -4033,7 +4025,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -4052,37 +4044,6 @@
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-27-25 to 08-02-25 Milwaukee Schedule.xlsx
+++ b/07-27-25 to 08-02-25 Milwaukee Schedule.xlsx
@@ -709,7 +709,8 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Bag 8, SB 11</t>
+          <t>Bag 8, SB 11
+or Bag 12</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>

--- a/07-27-25 to 08-02-25 Milwaukee Schedule.xlsx
+++ b/07-27-25 to 08-02-25 Milwaukee Schedule.xlsx
@@ -3071,7 +3071,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -3126,10 +3126,14 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Pamela</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>w/ Carlie</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
@@ -3186,21 +3190,9 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>w/ Carlie</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
@@ -3285,7 +3277,11 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5:30 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
@@ -3330,7 +3326,7 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>5:30 AM OFFICE LEAVE TIME</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -3381,7 +3377,7 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -3432,7 +3428,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>AURORA OUTPATIENT RX #1228, KIEL</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -3483,7 +3479,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1228, KIEL</t>
+          <t>1001 SERVICE RD., SUITE 101</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3534,7 +3530,7 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1001 SERVICE RD., SUITE 101</t>
+          <t>https://goo.gl/maps/D7vYqH7GJJNUTNaT7</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -3571,11 +3567,7 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/D7vYqH7GJJNUTNaT7</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
@@ -3605,9 +3597,21 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>White Camry, Equip</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
@@ -3648,21 +3652,9 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>White Camry, Equip</t>
-        </is>
-      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
@@ -3736,7 +3728,11 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7:00 AM START </t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
@@ -3769,7 +3765,7 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t xml:space="preserve">7:00 AM START </t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -3800,7 +3796,7 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>PICK #880 RX ONLY, GLENDALE-SILVER SPRING</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -3843,7 +3839,7 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>PICK #880 RX ONLY, GLENDALE-SILVER SPRING</t>
+          <t>1735 W SILVER SPRING</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -3882,7 +3878,7 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1735 W SILVER SPRING</t>
+          <t>https://goo.gl/maps/SUc4yjc7BVT2</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -3919,11 +3915,7 @@
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/SUc4yjc7BVT2</t>
-        </is>
-      </c>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
@@ -3949,9 +3941,21 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3976,21 +3980,9 @@
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">

--- a/07-27-25 to 08-02-25 Milwaukee Schedule.xlsx
+++ b/07-27-25 to 08-02-25 Milwaukee Schedule.xlsx
@@ -650,7 +650,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Bag 12</t>
+          <t>Bag 13</t>
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
@@ -722,7 +722,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Bag 8, SB 11</t>
+          <t>Bag 8, SB 11 or Bag 12</t>
         </is>
       </c>
       <c r="P6" t="inlineStr"/>

--- a/07-27-25 to 08-02-25 Milwaukee Schedule.xlsx
+++ b/07-27-25 to 08-02-25 Milwaukee Schedule.xlsx
@@ -2406,7 +2406,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>METRO #102, SUN PRAIRIE-IRONWOOD</t>
+          <t>METRO #102 +RX, SUN PRAIRIE - IRONWOOD</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2879,7 +2879,8 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
@@ -2985,7 +2986,8 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
